--- a/optimize_processing/ErrorCasesAnalysis.xlsx
+++ b/optimize_processing/ErrorCasesAnalysis.xlsx
@@ -790,11 +790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343048480"/>
-        <c:axId val="343055760"/>
+        <c:axId val="203376688"/>
+        <c:axId val="203377248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343048480"/>
+        <c:axId val="203376688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,12 +851,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343055760"/>
+        <c:crossAx val="203377248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343055760"/>
+        <c:axId val="203377248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343048480"/>
+        <c:crossAx val="203376688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1666,11 +1666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333545344"/>
-        <c:axId val="261266160"/>
+        <c:axId val="203379488"/>
+        <c:axId val="201841376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333545344"/>
+        <c:axId val="203379488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,12 +1727,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261266160"/>
+        <c:crossAx val="201841376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261266160"/>
+        <c:axId val="201841376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333545344"/>
+        <c:crossAx val="203379488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3023,13 +3023,14 @@
       <sheetName val="Compile2"/>
       <sheetName val="Sheet4"/>
       <sheetName val="Compile4Old"/>
-      <sheetName val="FrameLength123"/>
       <sheetName val="HiddenNode112"/>
       <sheetName val="Hidden_Node"/>
+      <sheetName val="FrameLength123"/>
+      <sheetName val="FilterBank1323"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="14">
           <cell r="A14">
@@ -3297,10 +3298,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
